--- a/HMX Data description.xlsx
+++ b/HMX Data description.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10307"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RayWong/Google Drive/MOOC/Analysis/Edx_year1_dataset/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F493F4-7923-4B47-9208-37414211CE1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="560" windowWidth="24220" windowHeight="13440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,15 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="84">
-  <si>
-    <t>variable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="87">
   <si>
     <t>unit</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,14 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>source</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Actually the values of this column are all 1, which make sense. If one did not register, one would not appear on the dataset. This variable may not be that important</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>viewed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boolen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>There exist course materials outside of the ‘Courseware’ tab, such as the Syllabus or the Discussion forums.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,23 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>first portion identifies dataset</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, second portion is a random ID number. </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dataset name inconsistent, HMxPC13 VS MHxPC13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,6 +268,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>whether earned a certificate or not. Certificates are based on course grades, and depending on the course, the cutoff for a certificate varies from 50% - 80%.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>final_cc_cname_DI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,10 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>in consideration of the reliability, we had better filter out the records without a inconsistent problem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>identifies staff and instructors, but blank as staff and instructors were removed from this release.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -342,18 +308,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>number of blank records is not consistent with the number of blank records in variable nevents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>last_event_DI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>number of blank records is not consistent with the number of blank records in variable last_event_DI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>missing values represent 0?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,26 +324,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>whether earned a certificate or not. Certificates are based on course grades, and depending on the course, the cutoff for a certificate varies from 50% - 80%.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first portion identifies dataset, second portion is a random ID number. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">identifies records that are internally inconsistent. </t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> String</t>
+  </si>
+  <si>
+    <t>Numerical</t>
+  </si>
+  <si>
+    <t>in consideration of the reliability, we had better filter the records without a inconsistent problem</t>
+  </si>
+  <si>
+    <t>date of last interaction with course, blank if no interactions beyond registration.</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Actually the values of this column are all 1, which make sense. If one did not register, one would not appear in the dataset. This variable may not be that important</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -394,7 +387,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -403,10 +396,28 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -479,76 +490,111 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -873,464 +919,460 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="67.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="67.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="B3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="D3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="6" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="12">
+        <v>1980</v>
+      </c>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3" t="s">
+      <c r="C15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="12">
+        <v>502</v>
+      </c>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="12">
+        <v>16</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="12">
+        <v>52</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="12">
+        <v>12</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="12">
         <v>8</v>
       </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="28" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C20" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="191" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="44" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C21" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="28" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="28" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1980</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="28" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="28" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.87</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="28" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="28" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="3">
-        <v>502</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="28" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="3">
-        <v>16</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="3">
-        <v>52</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="28" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="3">
-        <v>12</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="28" customHeight="1">
-      <c r="A19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="3">
-        <v>8</v>
-      </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="28" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="135" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="28" customHeight="1"/>
-    <row r="23" spans="1:7" ht="28" customHeight="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1341,4 +1383,255 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680220DD-CF95-DA43-962C-B149155B99DC}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="71.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>